--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要・ルール" sheetId="1" r:id="rId1"/>
@@ -1804,9 +1804,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:srgbClr val="599AD5"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1834,7 +1832,7 @@
               <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
               <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>ランキングシーン</a:t>
+            <a:t>ランキング画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2012,15 +2010,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2029,8 +2027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6248400" y="1729740"/>
-          <a:ext cx="2034540" cy="289560"/>
+          <a:off x="6903720" y="2628900"/>
+          <a:ext cx="2034540" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2064,7 +2062,7 @@
               <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
               <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>なんかのボタンを押す</a:t>
+            <a:t>なんかのボタンを押すとタイトルに戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2380,6 +2378,68 @@
               <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>スタートボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9433560" y="1813560"/>
+          <a:ext cx="1851660" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム画面の上に描画</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3442,15 +3502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3459,8 +3519,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1844040" y="7124700"/>
-          <a:ext cx="1775460" cy="1021080"/>
+          <a:off x="1798320" y="6842760"/>
+          <a:ext cx="1775460" cy="1356360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3508,7 +3568,7 @@
               <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
               <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>→リザルト画面を表示後、ランキング画面へ</a:t>
+            <a:t>→リザルト・ランキング画面を表示後、タイトルシーンへ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3636,6 +3696,1654 @@
               <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
             <a:t>→ゲームシーンへ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="213360" y="8915400"/>
+          <a:ext cx="1645920" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲームクリア後</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>■リザルト画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="297180" y="9525000"/>
+          <a:ext cx="5059680" cy="3329940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327660" y="12252960"/>
+          <a:ext cx="4998720" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>588765</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1348740" y="11910060"/>
+          <a:ext cx="581145" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>117432</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="556260" cy="342901"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4251960" y="10633032"/>
+          <a:ext cx="556260" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>109812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="556260" cy="342901"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1859280" y="10625412"/>
+          <a:ext cx="556260" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155532</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="701040" cy="342901"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="990600" y="9756732"/>
+          <a:ext cx="701040" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>10752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="701040" cy="342901"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3550920" y="9840552"/>
+          <a:ext cx="701040" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089660" y="9738360"/>
+          <a:ext cx="3436620" cy="2042160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="9700260"/>
+          <a:ext cx="1752600" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242060" y="9951720"/>
+          <a:ext cx="3162300" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>クリアタイム　１：２０ → ２５０</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ヒットポイント　３ →</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t> ２５０</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>合計スコア　→　５００</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1" i="1">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>評価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1" baseline="0">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1" i="1">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="11224260"/>
+          <a:ext cx="4328160" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>計算方法は具体的にはまだわからないが、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>目安として</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>HP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>満タン　＝　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>０％</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>クリアタイム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>減点方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　＝　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>０％</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>みたいな感じで目安として設定しておく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>具体的なのはあとあとで。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608320" y="9761220"/>
+          <a:ext cx="4328160" cy="1455420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>以下段階的に表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①クリアタイムのスコアを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>②ヒットポイントのスコアを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③合計スコアを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>④評価ランクを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>⑤花火</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="167640" y="13289280"/>
+          <a:ext cx="1645920" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>■ランキング画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="13784580"/>
+          <a:ext cx="5059680" cy="3329940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="335280" y="16512540"/>
+          <a:ext cx="4998720" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596385</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1356360" y="16169640"/>
+          <a:ext cx="581145" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>33612</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="556260" cy="342901"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="14892612"/>
+          <a:ext cx="556260" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>71712</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="701040" cy="342901"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="998220" y="14016312"/>
+          <a:ext cx="701040" cy="342901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1097280" y="13997940"/>
+          <a:ext cx="3436620" cy="2042160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="13959840"/>
+          <a:ext cx="1752600" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ランキング</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249680" y="14211300"/>
+          <a:ext cx="3162300" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>１位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t> 田中 １１２１０</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>２位 翔太</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t> １００００</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>３位 ほげ ９９００</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>１３位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>森拓 ３３１３</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6687,12 +8395,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>518159</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="784860" cy="460333"/>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1169277" cy="685800"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="32" name="図 31"/>
@@ -6714,8 +8422,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="701040" y="6240780"/>
-          <a:ext cx="784860" cy="460333"/>
+          <a:off x="518159" y="6248400"/>
+          <a:ext cx="1169277" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6731,6 +8439,596 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="7086600"/>
+          <a:ext cx="2301240" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>■ 高速で過ぎ去る敵</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>低間隔で高速で過ぎ去っていく。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>クロッシーロードの列車と同じ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4701540" y="5326380"/>
+          <a:ext cx="2301240" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>■ 低速で大きい敵</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゆっくり進むくせに大きいから邪魔な敵。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>96088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4884420" y="6039688"/>
+          <a:ext cx="1584960" cy="1018337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="101600">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="380999" y="7856220"/>
+          <a:ext cx="1440181" cy="759278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="127000">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221463</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5288280" y="7833360"/>
+          <a:ext cx="968223" cy="886097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="127000">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="7254240"/>
+          <a:ext cx="2301240" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>■ 上からプレイヤーを狙って降下してくる敵</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6469380" y="7787640"/>
+          <a:ext cx="2857500" cy="972316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面から見切れると消滅</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>落ち葉のように左右にゆらぎながらプレイヤーにむかって降下する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>横レーンに生成する横に動く敵とは別</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8489,7 +10787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -8509,7 +10807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -8525,8 +10823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8557,8 +10855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -18,8 +18,6 @@
     <sheet name="プレイヤー仕様" sheetId="4" r:id="rId4"/>
     <sheet name="敵の各仕様" sheetId="5" r:id="rId5"/>
     <sheet name="タイトルシーン" sheetId="3" r:id="rId6"/>
-    <sheet name="リザルト画面" sheetId="10" r:id="rId7"/>
-    <sheet name="ランキング画面" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4350,14 +4348,7 @@
               <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
               <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>ヒットポイント　３ →</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
-              <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
-            </a:rPr>
-            <a:t> ２５０</a:t>
+            <a:t>コイン　１２枚　→　１２０</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
@@ -4423,205 +4414,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5600700" y="11224260"/>
-          <a:ext cx="4328160" cy="1455420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>計算方法は具体的にはまだわからないが、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>目安として</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>HP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>満タン　＝　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>０％</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>クリアタイム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>減点方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　＝　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>０％</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>みたいな感じで目安として設定しておく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>具体的なのはあとあとで。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -4702,7 +4494,7 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>②ヒットポイントのスコアを表示</a:t>
+            <a:t>②コインのスコアを表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
             <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -5308,7 +5100,7 @@
               <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
               <a:ea typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>３位 ほげ ９９００</a:t>
+            <a:t>３位 ほげ ９９０１</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="HG創英角ｺﾞｼｯｸUB" panose="020B0909000000000000" pitchFamily="49" charset="-128"/>
@@ -8254,15 +8046,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8271,7 +8063,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="5379720"/>
+          <a:off x="198120" y="5334000"/>
           <a:ext cx="2301240" cy="807720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8396,11 +8188,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>518159</xdr:colOff>
+      <xdr:colOff>518158</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1169277" cy="685800"/>
+      <xdr:rowOff>78204</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1165861" cy="683796"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="32" name="図 31"/>
@@ -8422,8 +8214,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="518159" y="6248400"/>
-          <a:ext cx="1169277" cy="685800"/>
+          <a:off x="518158" y="6250404"/>
+          <a:ext cx="1165861" cy="683796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8747,15 +8539,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:colOff>426719</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>157298</xdr:rowOff>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>35378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8778,7 +8570,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="380999" y="7856220"/>
+          <a:off x="426719" y="7962900"/>
           <a:ext cx="1440181" cy="759278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8931,15 +8723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>73156</xdr:rowOff>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8948,7 +8740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6469380" y="7787640"/>
+          <a:off x="6697980" y="6217920"/>
           <a:ext cx="2857500" cy="972316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8983,13 +8775,111 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>画面から見切れると消滅</a:t>
+            <a:t>横に長い</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="769620" cy="460333"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="3124200"/>
+          <a:ext cx="769620" cy="460333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="85000"/>
+            </a:srgbClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="7780020"/>
+          <a:ext cx="2857500" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -8997,7 +8887,7 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>落ち葉のように左右にゆらぎながらプレイヤーにむかって降下する。</a:t>
+            <a:t>画面から見切れると消滅</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -9011,7 +8901,7 @@
               <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>横レーンに生成する横に動く敵とは別</a:t>
+            <a:t>落ち葉のように左右にゆらぎながらプレイヤーにむかって降下する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -9020,6 +8910,128 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>横レーンに生成する横に動く敵とは別</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>二体同時生成はなし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>217936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339340" y="7932420"/>
+          <a:ext cx="2857500" cy="972316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>特に警告は無しで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイズは標準的な敵くらい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>特別すばやい</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
             <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
@@ -9037,15 +9049,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9054,7 +9066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="91440"/>
+          <a:off x="60960" y="167640"/>
           <a:ext cx="3040380" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10041,15 +10053,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>445450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>407350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10072,7 +10084,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8831580" y="3596640"/>
+          <a:off x="8793480" y="3520440"/>
           <a:ext cx="1001710" cy="998220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10787,7 +10799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -10807,7 +10819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
@@ -10823,8 +10835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10855,8 +10867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10872,7 +10884,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="S23" sqref="F1:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10881,32 +10893,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>